--- a/pearson_tables/t2m_netherlands-2-3.xlsx
+++ b/pearson_tables/t2m_netherlands-2-3.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.5986378080623815</v>
+        <v>-0.598108242147238</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6471152435618942</v>
+        <v>0.6534443712313868</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.6722274145949798</v>
+        <v>-0.6789664725740319</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.7503671491187133</v>
+        <v>-0.7469354083221468</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7061175536602727</v>
+        <v>0.700834921232218</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7986136374067876</v>
+        <v>-0.8017516749261175</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6644440345391608</v>
+        <v>-0.6605507161631865</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6731810652961299</v>
+        <v>-0.6630486195838414</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6673505093582783</v>
+        <v>-0.6803745916549853</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8412854735926503</v>
+        <v>-0.8448773721439531</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.6340532976553982</v>
+        <v>0.6056541206630182</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.6975873888956382</v>
+        <v>0.674227746103139</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7793929374203367</v>
+        <v>0.7470809345076589</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.6764318113531512</v>
+        <v>0.6707235140136254</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6025050051231846</v>
+        <v>-0.6229360296395556</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.7560614558888411</v>
+        <v>-0.7162815057609989</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6595934473673347</v>
+        <v>-0.6555241559669299</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7605926577388399</v>
+        <v>0.7713944330297057</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.7142818787647394</v>
+        <v>-0.7873339243053709</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4973965628084921</v>
+        <v>0.4936852292443559</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6344907198953191</v>
+        <v>0.6384932586089653</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.747400129301616</v>
+        <v>-0.7423493649827849</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.5850627933275845</v>
+        <v>-0.6041343640987742</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.6327111897584825</v>
+        <v>0.6510576106228616</v>
       </c>
     </row>
   </sheetData>

--- a/pearson_tables/t2m_netherlands-2-3.xlsx
+++ b/pearson_tables/t2m_netherlands-2-3.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.598108242147238</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6534443712313868</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.6789664725740319</v>
+        <v>0.6505047461123566</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.7469354083221468</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.700834921232218</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.8017516749261175</v>
+        <v>-0.7806995076831166</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.6605507161631865</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.6630486195838414</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.6803745916549853</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.8448773721439531</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6056541206630182</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.674227746103139</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7470809345076589</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6707235140136254</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.6229360296395556</v>
+        <v>-0.6824410903491035</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.7162815057609989</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.6555241559669299</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7713944330297057</v>
+        <v>0.7832279335015655</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.7873339243053709</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4936852292443559</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6384932586089653</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.7423493649827849</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.6041343640987742</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6510576106228616</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
